--- a/biology/Botanique/Josiane_Ubaud/Josiane_Ubaud.xlsx
+++ b/biology/Botanique/Josiane_Ubaud/Josiane_Ubaud.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Josiane Ubaud (Josiana Ubaud en occitan selon la norme classique) est une linguiste, lexicographe et botaniste française, d'expression provençale, languedocienne et française, née le 10 mai 1947 à Marseille. 
-Elle est l'autrice du Diccionari ortografic, gramatical e morfologic de l'occitan[1] et du Diccionari scientific francés-occitan, deux œuvres  essentielles pour la connaissance de l’occitan. 
+Elle est l'autrice du Diccionari ortografic, gramatical e morfologic de l'occitan et du Diccionari scientific francés-occitan, deux œuvres  essentielles pour la connaissance de l’occitan. 
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Josiane Ubaud a été professeur de mathématiques durant huit ans avant de se consacrer à la lexicographie occitane à partir de 1990. Elle a été responsable, avec Patric Sauzet, du Gidilòc de 1991 à 2003[2]. Elle est aussi formatrice en ethnobotanique à l'IUFM. Elle est intervenue dans de nombreux programmes de radio (Divergence FM et France Culture) pour y parler de botanique. Elle est membre du conseil linguistique du Congrès permanent de la lenga occitana et elle publie des articles d'opinion dans le journal électronique Jornalet.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Josiane Ubaud a été professeur de mathématiques durant huit ans avant de se consacrer à la lexicographie occitane à partir de 1990. Elle a été responsable, avec Patric Sauzet, du Gidilòc de 1991 à 2003. Elle est aussi formatrice en ethnobotanique à l'IUFM. Elle est intervenue dans de nombreux programmes de radio (Divergence FM et France Culture) pour y parler de botanique. Elle est membre du conseil linguistique du Congrès permanent de la lenga occitana et elle publie des articles d'opinion dans le journal électronique Jornalet.
 </t>
         </is>
       </c>
@@ -543,7 +557,9 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Lexic Provençau de Botanica, IEO 13 (1986)
 Faire de la botanica en occitan, dans Actes de l'UEO, Nîmes (1992).
